--- a/data/trans_orig/CONS_ANS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en País Vasco</t>
+          <t>Consumo de ansiolíticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Andalucia</t>
+          <t>Consumo de ansiolíticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en C.Valenciana</t>
+          <t>Consumo de ansiolíticos en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Barcelona</t>
+          <t>Consumo de ansiolíticos en Barcelona (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ANS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>5595</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7641</t>
+          <t>8223</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5506</t>
+          <t>7025</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3918</t>
+          <t>5084</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7681</t>
+          <t>9770</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10575</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8079</t>
+          <t>9752</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13826</t>
+          <t>16714</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>140741</t>
+          <t>157206</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>138169</t>
+          <t>154578</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>142499</t>
+          <t>159205</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>137385</t>
+          <t>161542</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>135210</t>
+          <t>158797</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>138973</t>
+          <t>163483</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>278126</t>
+          <t>318747</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>274875</t>
+          <t>314654</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>280622</t>
+          <t>321616</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>97,06%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3894</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6043</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5362</t>
+          <t>6091</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7585</t>
+          <t>8662</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>9256</t>
+          <t>9444</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>6896</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12470</t>
+          <t>12360</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77278</t>
+          <t>87073</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75129</t>
+          <t>85017</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78783</t>
+          <t>88433</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>103755</t>
+          <t>116577</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>101532</t>
+          <t>114006</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>105478</t>
+          <t>118414</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>181033</t>
+          <t>203649</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>177819</t>
+          <t>200733</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>183306</t>
+          <t>206197</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>96,76%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7213</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10296</t>
+          <t>8654</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5993</t>
+          <t>6662</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4354</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8208</t>
+          <t>9084</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13206</t>
+          <t>12885</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10383</t>
+          <t>10149</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16898</t>
+          <t>16165</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>156643</t>
+          <t>147661</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>153560</t>
+          <t>145230</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>158626</t>
+          <t>149393</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57152</t>
+          <t>54955</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54937</t>
+          <t>52533</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58791</t>
+          <t>56876</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>213795</t>
+          <t>202616</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>210103</t>
+          <t>199336</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>216618</t>
+          <t>205352</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,29%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11741</t>
+          <t>10864</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8949</t>
+          <t>8450</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14846</t>
+          <t>13971</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15357</t>
+          <t>14674</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12496</t>
+          <t>11836</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19477</t>
+          <t>18122</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>27098</t>
+          <t>25538</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>22976</t>
+          <t>21287</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>32101</t>
+          <t>30206</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>158348</t>
+          <t>158855</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>155243</t>
+          <t>155748</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>161140</t>
+          <t>161269</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>161826</t>
+          <t>167516</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>157706</t>
+          <t>164068</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>164687</t>
+          <t>170354</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>320173</t>
+          <t>326371</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>315170</t>
+          <t>321703</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>324295</t>
+          <t>330622</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>93,95%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6355</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12453</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9568</t>
+          <t>9170</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15747</t>
+          <t>14953</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>16563</t>
+          <t>15329</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>13250</t>
+          <t>12265</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>20763</t>
+          <t>18706</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72741</t>
+          <t>70747</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70496</t>
+          <t>68892</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74211</t>
+          <t>71982</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>120479</t>
+          <t>113791</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>117185</t>
+          <t>110463</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>123364</t>
+          <t>116246</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>193220</t>
+          <t>184538</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>189020</t>
+          <t>181161</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>196533</t>
+          <t>187602</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>93,86%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>522</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1159</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11378</t>
+          <t>9918</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8460</t>
+          <t>7647</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14627</t>
+          <t>12658</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>11656</t>
+          <t>10440</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8831</t>
+          <t>8067</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>14888</t>
+          <t>13327</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -2564,27 +2564,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44982</t>
+          <t>55081</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>44102</t>
+          <t>53087</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>106899</t>
+          <t>112683</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>103650</t>
+          <t>109943</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>109817</t>
+          <t>114954</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>151882</t>
+          <t>167764</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>148650</t>
+          <t>164877</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>154707</t>
+          <t>170137</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>95,47%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>32307</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27235</t>
+          <t>25533</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38002</t>
+          <t>35046</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>56048</t>
+          <t>55996</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>49920</t>
+          <t>50635</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>62404</t>
+          <t>62455</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>88355</t>
+          <t>86256</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>80155</t>
+          <t>79210</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>96665</t>
+          <t>94462</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>650732</t>
+          <t>676623</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>645037</t>
+          <t>671837</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>655804</t>
+          <t>681350</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>687496</t>
+          <t>727063</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>681140</t>
+          <t>720604</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>693624</t>
+          <t>732424</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1338228</t>
+          <t>1403685</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1329918</t>
+          <t>1395479</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1346428</t>
+          <t>1410731</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>94,68%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10790</t>
+          <t>11382</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26967</t>
+          <t>27710</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16497</t>
+          <t>17379</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>20328</t>
+          <t>19843</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>39663</t>
+          <t>40130</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3497,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>339716</t>
+          <t>338973</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>355893</t>
+          <t>355301</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>282404</t>
+          <t>281522</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>292957</t>
+          <t>292684</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>625921</t>
+          <t>625454</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>645256</t>
+          <t>645741</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>97,02%</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7416</t>
+          <t>7777</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21535</t>
+          <t>22046</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10020</t>
+          <t>10189</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23389</t>
+          <t>23708</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>20230</t>
+          <t>20847</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>39731</t>
+          <t>40124</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>302512</t>
+          <t>302001</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>316631</t>
+          <t>316270</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>236692</t>
+          <t>236373</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>250061</t>
+          <t>249892</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>544397</t>
+          <t>544004</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>563898</t>
+          <t>563281</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>96,43%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3904</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42273</t>
+          <t>41827</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5594</t>
+          <t>5723</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15121</t>
+          <t>15165</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7820</t>
+          <t>7636</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>54152</t>
+          <t>53327</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,32%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>433151</t>
+          <t>433597</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>471520</t>
+          <t>470978</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81825</t>
+          <t>81781</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91352</t>
+          <t>91223</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>84,36%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>518218</t>
+          <t>519043</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>564550</t>
+          <t>564734</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>98,67%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19706</t>
+          <t>19797</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40125</t>
+          <t>37994</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13589</t>
+          <t>13404</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56829</t>
+          <t>56901</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>34675</t>
+          <t>35545</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>84587</t>
+          <t>85490</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,29%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>496030</t>
+          <t>498161</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>516449</t>
+          <t>516358</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>579479</t>
+          <t>579407</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>622719</t>
+          <t>622904</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1087875</t>
+          <t>1086972</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1137787</t>
+          <t>1136917</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>96,97%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>5529</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18018</t>
+          <t>18690</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27265</t>
+          <t>25903</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>66357</t>
+          <t>65152</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>40057</t>
+          <t>39596</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>78474</t>
+          <t>77929</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>192714</t>
+          <t>192042</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>205663</t>
+          <t>205203</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>91,13%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>357592</t>
+          <t>358797</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>396684</t>
+          <t>398046</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>84,35%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>556207</t>
+          <t>556752</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>594624</t>
+          <t>595085</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>93,76%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11543</t>
+          <t>12482</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>41630</t>
+          <t>40556</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>64234</t>
+          <t>63656</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>44240</t>
+          <t>44209</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>68884</t>
+          <t>70257</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>155218</t>
+          <t>154279</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165620</t>
+          <t>165753</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,32%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>425734</t>
+          <t>426312</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>448338</t>
+          <t>449412</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>87,01%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>587845</t>
+          <t>586472</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>612489</t>
+          <t>612520</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>93,27%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>63399</t>
+          <t>57218</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>114988</t>
+          <t>113652</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>124910</t>
+          <t>129968</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>203354</t>
+          <t>202215</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>211739</t>
+          <t>209980</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>308108</t>
+          <t>308683</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,2%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1964814</t>
+          <t>1966150</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2016403</t>
+          <t>2022584</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2002799</t>
+          <t>2003938</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2081243</t>
+          <t>2076185</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3977847</t>
+          <t>3977272</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4074216</t>
+          <t>4075975</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>95,1%</t>
         </is>
       </c>
     </row>
@@ -8670,12 +8670,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>6064</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13324</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8685,12 +8685,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8980</t>
+          <t>9238</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17074</t>
+          <t>17272</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16731</t>
+          <t>17010</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>28252</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8783,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>191272</t>
+          <t>191052</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>198773</t>
+          <t>198532</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>192832</t>
+          <t>192634</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>200926</t>
+          <t>200668</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8853,12 +8853,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>386581</t>
+          <t>386250</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>397771</t>
+          <t>397492</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>95,9%</t>
         </is>
       </c>
     </row>
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6752</t>
+          <t>6981</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16265</t>
+          <t>15828</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13613</t>
+          <t>14181</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24917</t>
+          <t>24586</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9083,12 +9083,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>23315</t>
+          <t>22976</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>36917</t>
+          <t>37504</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>108683</t>
+          <t>109120</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>118196</t>
+          <t>117967</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>143366</t>
+          <t>143697</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>154670</t>
+          <t>154102</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>256314</t>
+          <t>255727</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>269916</t>
+          <t>270255</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>92,16%</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5263</t>
+          <t>5605</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15696</t>
+          <t>15623</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9371,12 +9371,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7495</t>
+          <t>7253</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18202</t>
+          <t>17696</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>14446</t>
+          <t>15056</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>29542</t>
+          <t>29666</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>19,32%</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80457</t>
+          <t>80530</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90890</t>
+          <t>90548</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9484,12 +9484,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39708</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49909</t>
+          <t>50151</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>124015</t>
+          <t>123891</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>139111</t>
+          <t>138501</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>80,76%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>90,2%</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8427</t>
+          <t>8540</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18988</t>
+          <t>19085</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19450</t>
+          <t>19889</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37150</t>
+          <t>37128</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>30044</t>
+          <t>30184</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>51802</t>
+          <t>51297</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>144154</t>
+          <t>144057</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>154715</t>
+          <t>154602</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9847,12 +9847,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>121400</t>
+          <t>121422</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>139100</t>
+          <t>138661</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>76,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9882,12 +9882,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>269890</t>
+          <t>270395</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>291648</t>
+          <t>291508</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>83,9%</t>
+          <t>84,05%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>90,62%</t>
         </is>
       </c>
     </row>
@@ -10042,12 +10042,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>469</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>4438</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -10057,12 +10057,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10558</t>
+          <t>10419</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23373</t>
+          <t>23688</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -10112,12 +10112,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12135</t>
+          <t>12508</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>26452</t>
+          <t>26323</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -10127,12 +10127,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>17,81%</t>
         </is>
       </c>
     </row>
@@ -10155,12 +10155,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49014</t>
+          <t>49271</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53302</t>
+          <t>53240</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10170,12 +10170,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70731</t>
+          <t>70416</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>83546</t>
+          <t>83685</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>74,83%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>88,93%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10225,12 +10225,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>121361</t>
+          <t>121490</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>135678</t>
+          <t>135305</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10240,12 +10240,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>82,1%</t>
+          <t>82,19%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>91,54%</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10385,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9263</t>
+          <t>9528</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>4823</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13358</t>
+          <t>13315</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10455,12 +10455,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>7576</t>
+          <t>7332</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19055</t>
+          <t>18531</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10470,12 +10470,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,75%</t>
         </is>
       </c>
     </row>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>27284</t>
+          <t>27019</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35339</t>
+          <t>35170</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>73,93%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>48952</t>
+          <t>48995</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>57587</t>
+          <t>57487</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10568,12 +10568,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>79803</t>
+          <t>80327</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>91282</t>
+          <t>91526</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>92,58%</t>
         </is>
       </c>
     </row>
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>38685</t>
+          <t>37684</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>58893</t>
+          <t>57551</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>81567</t>
+          <t>82640</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>111269</t>
+          <t>110606</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10798,12 +10798,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>124408</t>
+          <t>125272</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>161602</t>
+          <t>162298</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>11,35%</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>620202</t>
+          <t>621544</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>640410</t>
+          <t>641411</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>639288</t>
+          <t>639951</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>668990</t>
+          <t>667917</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1268050</t>
+          <t>1267354</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1305244</t>
+          <t>1304380</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>91,24%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ANS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de ansiolíticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5595</t>
+          <t>18073</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>11155</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8223</t>
+          <t>27194</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12007</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7348</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19719</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>7025</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>5084</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>9770</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>4,17%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>30079</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>21358</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>41928</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>5,8%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>12621</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>9752</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>16714</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>2,94%</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>157206</t>
+          <t>377314</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>154578</t>
+          <t>368193</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>159205</t>
+          <t>384232</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>438</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>161542</t>
+          <t>315619</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>158797</t>
+          <t>307907</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>163483</t>
+          <t>320278</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>93,98%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>97,76%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>692934</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>681085</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>701655</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>95,84%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
           <t>94,2%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>96,98%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>1666</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>318747</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>314654</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>321616</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>96,19%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>94,96%</t>
-        </is>
-      </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>97,05%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3352</t>
+          <t>13534</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5408</t>
+          <t>22079</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6091</t>
+          <t>16703</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>10776</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8662</t>
+          <t>24795</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>9444</t>
+          <t>30236</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6896</t>
+          <t>22088</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12360</t>
+          <t>41826</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87073</t>
+          <t>330813</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>85017</t>
+          <t>322268</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88433</t>
+          <t>336511</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>116577</t>
+          <t>270237</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>114006</t>
+          <t>262145</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>118414</t>
+          <t>276164</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>688</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>203649</t>
+          <t>601051</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>200733</t>
+          <t>589461</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>206197</t>
+          <t>609199</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,5%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>18241</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>11250</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8654</t>
+          <t>28693</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6662</t>
+          <t>11492</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>6930</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9084</t>
+          <t>18352</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12885</t>
+          <t>29733</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10149</t>
+          <t>20528</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16165</t>
+          <t>40594</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>10,93%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>147661</t>
+          <t>242315</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145230</t>
+          <t>231863</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>149393</t>
+          <t>249306</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54955</t>
+          <t>99316</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52533</t>
+          <t>92456</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56876</t>
+          <t>103878</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,26%</t>
+          <t>83,44%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>388</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>202616</t>
+          <t>341632</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>199336</t>
+          <t>330771</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>205352</t>
+          <t>350837</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>94,47%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>110808</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>110808</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>110808</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>423</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>371365</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>371365</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>371365</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10864</t>
+          <t>31874</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8450</t>
+          <t>22296</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13971</t>
+          <t>42504</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14674</t>
+          <t>40098</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11836</t>
+          <t>31233</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18122</t>
+          <t>51440</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25538</t>
+          <t>71972</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21287</t>
+          <t>57178</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>30206</t>
+          <t>87472</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>527</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>158855</t>
+          <t>578108</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>155748</t>
+          <t>567478</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>161269</t>
+          <t>587686</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>93,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>610</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>167516</t>
+          <t>449724</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>164068</t>
+          <t>438382</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>170354</t>
+          <t>458589</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>326371</t>
+          <t>1027831</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>321703</t>
+          <t>1012331</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>330622</t>
+          <t>1042625</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>94,8%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3704</t>
+          <t>11131</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2469</t>
+          <t>5700</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5559</t>
+          <t>20100</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>48662</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9170</t>
+          <t>38661</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14953</t>
+          <t>59999</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>15329</t>
+          <t>59793</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12265</t>
+          <t>47604</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18706</t>
+          <t>73458</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>11,12%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70747</t>
+          <t>241715</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68892</t>
+          <t>232746</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71982</t>
+          <t>247146</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>97,75%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>507</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>113791</t>
+          <t>359357</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>110463</t>
+          <t>348020</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>116246</t>
+          <t>369358</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>88,07%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>85,29%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>728</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>184538</t>
+          <t>601073</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>181161</t>
+          <t>587408</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>187602</t>
+          <t>613262</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>92,8%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>816</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>13786</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9918</t>
+          <t>56712</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7647</t>
+          <t>44951</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12658</t>
+          <t>70277</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>10440</t>
+          <t>60937</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8067</t>
+          <t>49001</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>13327</t>
+          <t>78055</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55081</t>
+          <t>165272</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53087</t>
+          <t>155711</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>168424</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>612</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>112683</t>
+          <t>490162</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>109943</t>
+          <t>476597</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>114954</t>
+          <t>501923</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>686</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>167764</t>
+          <t>655434</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>164877</t>
+          <t>638316</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>170137</t>
+          <t>667370</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>89,1%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>93,16%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>97077</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>25533</t>
+          <t>78062</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>35046</t>
+          <t>116596</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>280</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>55996</t>
+          <t>185674</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>50635</t>
+          <t>165321</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>62455</t>
+          <t>209157</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>385</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>86256</t>
+          <t>282750</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>79210</t>
+          <t>254226</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>94462</t>
+          <t>313334</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>676623</t>
+          <t>1935538</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>671837</t>
+          <t>1916019</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>681350</t>
+          <t>1954553</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4065</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>727063</t>
+          <t>1984416</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>720604</t>
+          <t>1960933</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>732424</t>
+          <t>2004769</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7880</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1403685</t>
+          <t>3919955</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1395479</t>
+          <t>3889371</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1410731</t>
+          <t>3948479</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>93,95%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170090</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170090</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170090</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4828</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4202705</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4202705</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4202705</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Andalucia (tasa de respuesta: 99,84%)</t>
+          <t>Consumo de ansiolíticos en Barcelona (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3374,107 +3374,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18219</t>
+          <t>9088</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11382</t>
+          <t>6064</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27710</t>
+          <t>13544</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10307</t>
+          <t>12784</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>9238</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17379</t>
+          <t>17272</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>28527</t>
+          <t>21872</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>19843</t>
+          <t>17010</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40130</t>
+          <t>28252</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -3487,107 +3487,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>572</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>348464</t>
+          <t>195508</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>338973</t>
+          <t>191052</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>355301</t>
+          <t>198532</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>570</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>288594</t>
+          <t>197122</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>281522</t>
+          <t>192634</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>292684</t>
+          <t>200668</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>637057</t>
+          <t>392630</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>625454</t>
+          <t>386250</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>645741</t>
+          <t>397492</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>95,9%</t>
         </is>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>598</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>204596</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>204596</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>204596</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3635,22 +3635,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>209906</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>209906</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>209906</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>414502</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>414502</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>414502</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13204</t>
+          <t>10651</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>6981</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22046</t>
+          <t>15828</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15676</t>
+          <t>18805</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10189</t>
+          <t>14181</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23708</t>
+          <t>24586</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>28881</t>
+          <t>29456</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>20847</t>
+          <t>22976</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>40124</t>
+          <t>37504</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>310843</t>
+          <t>114297</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>302001</t>
+          <t>109120</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>316270</t>
+          <t>117967</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>379</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>244405</t>
+          <t>149478</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>236373</t>
+          <t>143697</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>249892</t>
+          <t>154102</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>653</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>555247</t>
+          <t>263775</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>544004</t>
+          <t>255727</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>563281</t>
+          <t>270255</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>92,16%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>428</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168283</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168283</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168283</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>728</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293231</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293231</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293231</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>9199</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5605</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15623</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11804</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7253</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>17696</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>41827</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,8%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>9634</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5723</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15165</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>27330</t>
+          <t>21003</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7636</t>
+          <t>15056</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>53327</t>
+          <t>29666</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>19,32%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>457728</t>
+          <t>86954</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>433597</t>
+          <t>80530</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>470978</t>
+          <t>90548</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87312</t>
+          <t>45600</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81781</t>
+          <t>39708</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91223</t>
+          <t>50151</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>79,44%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>300</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>545040</t>
+          <t>132554</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>519043</t>
+          <t>123891</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>564734</t>
+          <t>138501</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>86,32%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>90,2%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>96946</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>96946</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>96946</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572370</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572370</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572370</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28387</t>
+          <t>12812</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19797</t>
+          <t>8540</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37994</t>
+          <t>19085</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35978</t>
+          <t>26788</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13404</t>
+          <t>19889</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56901</t>
+          <t>37128</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>64365</t>
+          <t>39600</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>35545</t>
+          <t>30184</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>85490</t>
+          <t>51297</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>507768</t>
+          <t>150330</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>498161</t>
+          <t>144057</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>516358</t>
+          <t>154602</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>284</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>600330</t>
+          <t>131762</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>579407</t>
+          <t>121422</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>622904</t>
+          <t>138661</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>83,1%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>76,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>591</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1108097</t>
+          <t>282092</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1086972</t>
+          <t>270395</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1136917</t>
+          <t>291508</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>87,69%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>84,05%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>90,62%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158550</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158550</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158550</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>667</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>321692</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>321692</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>321692</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10406</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5529</t>
+          <t>469</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18690</t>
+          <t>4438</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>48818</t>
+          <t>16233</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25903</t>
+          <t>10419</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>65152</t>
+          <t>23688</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>59225</t>
+          <t>17830</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>39596</t>
+          <t>12508</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>77929</t>
+          <t>26323</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>17,81%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>200326</t>
+          <t>52113</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>192042</t>
+          <t>49271</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>205203</t>
+          <t>53240</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>375131</t>
+          <t>77871</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>358797</t>
+          <t>70416</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>398046</t>
+          <t>83685</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>74,83%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>88,93%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>251</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>575456</t>
+          <t>129983</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>556752</t>
+          <t>121490</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>595085</t>
+          <t>135305</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>82,19%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>91,54%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>286</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>147813</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>147813</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>147813</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12482</t>
+          <t>9528</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>50991</t>
+          <t>8408</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>40556</t>
+          <t>4823</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>63656</t>
+          <t>13315</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>54916</t>
+          <t>11904</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>44209</t>
+          <t>7332</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>70257</t>
+          <t>18531</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>18,75%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>162836</t>
+          <t>33051</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>154279</t>
+          <t>27019</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>165753</t>
+          <t>35170</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>73,93%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>438977</t>
+          <t>53902</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>426312</t>
+          <t>48995</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>449412</t>
+          <t>57487</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,01%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>218</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>601813</t>
+          <t>86954</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>586472</t>
+          <t>80327</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>612520</t>
+          <t>91526</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>87,96%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>92,58%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>244</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>91838</t>
+          <t>46842</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>57218</t>
+          <t>37684</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>113652</t>
+          <t>57551</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>215</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>171406</t>
+          <t>94823</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>129968</t>
+          <t>82640</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>202215</t>
+          <t>110606</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>327</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>263243</t>
+          <t>141665</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>209980</t>
+          <t>125272</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>308683</t>
+          <t>162298</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>11,35%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1987964</t>
+          <t>632253</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1966150</t>
+          <t>621544</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2022584</t>
+          <t>641411</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2682</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2034747</t>
+          <t>655734</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2003938</t>
+          <t>639951</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2076185</t>
+          <t>667917</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4022712</t>
+          <t>1287987</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3977272</t>
+          <t>1267354</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4075975</t>
+          <t>1304380</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>91,24%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>679095</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>679095</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>679095</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>1849</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2206153</t>
+          <t>750557</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2206153</t>
+          <t>750557</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2206153</t>
+          <t>750557</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4828</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4285955</t>
+          <t>1429652</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4285955</t>
+          <t>1429652</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4285955</t>
+          <t>1429652</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Barcelona (tasa de respuesta: 99,72%)</t>
+          <t>Consumo de ansiolíticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8660,107 +8660,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9088</t>
+          <t>5595</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6064</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13544</t>
+          <t>8223</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12784</t>
+          <t>7025</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9238</t>
+          <t>5084</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17272</t>
+          <t>9770</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>21872</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>17010</t>
+          <t>9752</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>28252</t>
+          <t>16714</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -8773,107 +8773,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>826</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>195508</t>
+          <t>157206</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>191052</t>
+          <t>154578</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>198532</t>
+          <t>159205</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>840</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>197122</t>
+          <t>161542</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>192634</t>
+          <t>158797</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>200668</t>
+          <t>163483</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>392630</t>
+          <t>318747</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>386250</t>
+          <t>314654</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>397492</t>
+          <t>321616</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>97,06%</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>204596</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>204596</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>204596</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8921,22 +8921,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>209906</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>209906</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>209906</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8956,22 +8956,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>414502</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>414502</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>414502</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9003,107 +9003,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10651</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6981</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15828</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18805</t>
+          <t>6091</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14181</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24586</t>
+          <t>8662</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>29456</t>
+          <t>9444</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>22976</t>
+          <t>6896</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>37504</t>
+          <t>12360</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -9116,107 +9116,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>474</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>114297</t>
+          <t>87073</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>109120</t>
+          <t>85017</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>117967</t>
+          <t>88433</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>640</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>149478</t>
+          <t>116577</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>143697</t>
+          <t>114006</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>154102</t>
+          <t>118414</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,39%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>1114</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>263775</t>
+          <t>203649</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>255727</t>
+          <t>200733</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>270255</t>
+          <t>206197</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>96,76%</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9264,22 +9264,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9299,22 +9299,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>293231</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>293231</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>293231</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9346,107 +9346,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9199</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5605</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15623</t>
+          <t>8654</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11804</t>
+          <t>6662</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7253</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17696</t>
+          <t>9084</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>21003</t>
+          <t>12885</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>15056</t>
+          <t>10149</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>29666</t>
+          <t>16165</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -9459,107 +9459,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>885</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86954</t>
+          <t>147661</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80530</t>
+          <t>145230</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90548</t>
+          <t>149393</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>329</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45600</t>
+          <t>54955</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39708</t>
+          <t>52533</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50151</t>
+          <t>56876</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>79,44%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>69,17%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>132554</t>
+          <t>202616</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>123891</t>
+          <t>199336</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>138501</t>
+          <t>205352</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>80,68%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>95,29%</t>
         </is>
       </c>
     </row>
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9607,22 +9607,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9642,22 +9642,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9689,107 +9689,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12812</t>
+          <t>10864</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8540</t>
+          <t>8450</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19085</t>
+          <t>13971</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26788</t>
+          <t>14674</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19889</t>
+          <t>11836</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37128</t>
+          <t>18122</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>154</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>39600</t>
+          <t>25538</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>30184</t>
+          <t>21287</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>51297</t>
+          <t>30206</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -9802,107 +9802,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>938</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>150330</t>
+          <t>158855</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>144057</t>
+          <t>155748</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>154602</t>
+          <t>161269</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>950</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>131762</t>
+          <t>167516</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>121422</t>
+          <t>164068</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>138661</t>
+          <t>170354</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>83,1%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>282092</t>
+          <t>326371</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>270395</t>
+          <t>321703</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>291508</t>
+          <t>330622</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>93,95%</t>
         </is>
       </c>
     </row>
@@ -9915,22 +9915,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9950,22 +9950,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>158550</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>158550</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>158550</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9985,22 +9985,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>321692</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>321692</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>321692</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10032,107 +10032,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4438</t>
+          <t>5559</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16233</t>
+          <t>11625</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10419</t>
+          <t>9170</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23688</t>
+          <t>14953</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>17830</t>
+          <t>15329</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12508</t>
+          <t>12265</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>26323</t>
+          <t>18706</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -10145,107 +10145,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>52113</t>
+          <t>70747</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49271</t>
+          <t>68892</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53240</t>
+          <t>71982</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>676</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>77871</t>
+          <t>113791</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70416</t>
+          <t>110463</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>83685</t>
+          <t>116246</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>74,83%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,93%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>129983</t>
+          <t>184538</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>121490</t>
+          <t>181161</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>135305</t>
+          <t>187602</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>82,19%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>93,86%</t>
         </is>
       </c>
     </row>
@@ -10258,22 +10258,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>94104</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>94104</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94104</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10328,22 +10328,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>147813</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>147813</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>147813</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10375,107 +10375,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>522</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9528</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8408</t>
+          <t>9918</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4823</t>
+          <t>7647</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13315</t>
+          <t>12658</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>11904</t>
+          <t>10440</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>7332</t>
+          <t>8067</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>18531</t>
+          <t>13327</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -10488,107 +10488,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>33051</t>
+          <t>55081</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>27019</t>
+          <t>53087</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35170</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>630</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>53902</t>
+          <t>112683</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>48995</t>
+          <t>109943</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>57487</t>
+          <t>114954</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>896</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>86954</t>
+          <t>167764</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>80327</t>
+          <t>164877</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>91526</t>
+          <t>170137</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>87,96%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>81,25%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>95,47%</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10636,22 +10636,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10671,22 +10671,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10718,107 +10718,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>46842</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>37684</t>
+          <t>25533</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>57551</t>
+          <t>35046</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>331</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>94823</t>
+          <t>55996</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>82640</t>
+          <t>50635</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>110606</t>
+          <t>62455</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>509</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>141665</t>
+          <t>86256</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>125272</t>
+          <t>79210</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>162298</t>
+          <t>94462</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -10831,107 +10831,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>632253</t>
+          <t>676623</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>621544</t>
+          <t>671837</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>641411</t>
+          <t>681350</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>655734</t>
+          <t>727063</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>639951</t>
+          <t>720604</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>667917</t>
+          <t>732424</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>85,26%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,99%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3155</t>
+          <t>7880</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1287987</t>
+          <t>1403685</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1267354</t>
+          <t>1395479</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1304380</t>
+          <t>1410731</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>94,68%</t>
         </is>
       </c>
     </row>
@@ -10944,22 +10944,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>679095</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>679095</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>679095</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10979,22 +10979,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>750557</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>750557</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>750557</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3482</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1429652</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1429652</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1429652</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
